--- a/simulations/synthetic_data_50.xlsx
+++ b/simulations/synthetic_data_50.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G272"/>
+  <dimension ref="A1:G365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,12 +481,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>XXDA</t>
+          <t>XXCI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Prof AC</t>
+          <t>Prof CJ</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -506,16 +506,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>XXFL</t>
+          <t>XXPH</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Prof CB</t>
+          <t>Prof DX</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -531,12 +531,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>XXGV</t>
+          <t>XXH</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Prof AC</t>
+          <t>Prof CD</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -556,16 +556,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>XXHF</t>
+          <t>XXRA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Prof BP</t>
+          <t>Prof BU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -581,18 +581,18 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>XXAK</t>
+          <t>XXLR</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Prof BI</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof AY</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -601,23 +601,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sec B</t>
+          <t>Sec A</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>XXGT</t>
+          <t>XXBV</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Prof H</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>Prof DD, Prof ER, Prof CK, Prof DY</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
       <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -626,23 +626,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sec B</t>
+          <t>Sec A</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>XXEL</t>
+          <t>XXKZ</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Prof Z</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>Prof AN, Prof H, Prof EL, Prof CZ</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
       <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>XXIG</t>
+          <t>XXPL</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Prof AL</t>
+          <t>Prof BO</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -681,16 +681,16 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>XXBZ</t>
+          <t>XXEG</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Prof I</t>
+          <t>Prof DF</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -706,18 +706,18 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>XXIP</t>
+          <t>XXHI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Prof AC</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof M</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -726,17 +726,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sec C</t>
+          <t>Sec B</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>XXGA</t>
+          <t>XXGM</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Prof BV</t>
+          <t>Prof BJ</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -751,21 +751,21 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sec C</t>
+          <t>Sec B</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>XXCR</t>
+          <t>XXGN</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Prof CA</t>
+          <t>Prof R</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -776,23 +776,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sec C</t>
+          <t>Sec B</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>XXES</t>
+          <t>XXEB</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Prof AD</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>3</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
+          <t>Prof CN, Prof DI, Prof CC, Prof S</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
       <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -801,23 +801,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sec C</t>
+          <t>Sec B</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>XXCZ</t>
+          <t>XXGR</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Prof M</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>3</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
+          <t>Prof BQ, Prof BP, Prof X, Prof DN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
       <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -831,18 +831,18 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>XXCV</t>
+          <t>XXNR</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Prof BM</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof I</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -851,21 +851,21 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sec D</t>
+          <t>Sec C</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>XXHU</t>
+          <t>XXCL</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Prof AL</t>
+          <t>Prof AY</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -876,21 +876,21 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sec D</t>
+          <t>Sec C</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>XXDH</t>
+          <t>XXRP</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Prof AX</t>
+          <t>Prof BL</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -901,21 +901,21 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sec D</t>
+          <t>Sec C</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>XXJO</t>
+          <t>XXDE</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Prof AS</t>
+          <t>Prof DX</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -926,21 +926,21 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sec D</t>
+          <t>Sec C</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>XXFH</t>
+          <t>XXMV</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Prof E</t>
+          <t>Prof DA</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -951,17 +951,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sec D</t>
+          <t>Sec C</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>XXDT</t>
+          <t>XXDZ</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Prof AD</t>
+          <t>Prof CK, Prof DG, Prof BT, Prof EE</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -976,23 +976,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sec E</t>
+          <t>Sec C</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>XXDD</t>
+          <t>XXO</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Prof CH</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>2</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
+          <t>Prof DG, Prof H, Prof EK, Prof L</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
       <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -1001,17 +1001,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sec E</t>
+          <t>Sec D</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>XXP</t>
+          <t>XXGI</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Prof T</t>
+          <t>Prof ED</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1026,17 +1026,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sec E</t>
+          <t>Sec D</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>XXDV</t>
+          <t>XXQP</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Prof AJ</t>
+          <t>Prof L</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1051,17 +1051,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sec E</t>
+          <t>Sec D</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>XXIR</t>
+          <t>XXMK</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Prof BU</t>
+          <t>Prof Q</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1076,23 +1076,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sec E</t>
+          <t>Sec D</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>XXBC</t>
+          <t>XXIV</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Prof AL</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof AJ</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>4</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -1101,21 +1101,21 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Sec F</t>
+          <t>Sec D</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>XXEC</t>
+          <t>XXOK</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Prof F</t>
+          <t>Prof ET</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
@@ -1126,23 +1126,23 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Sec F</t>
+          <t>Sec D</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>XXDM</t>
+          <t>XXJK</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Prof BK</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>4</v>
-      </c>
-      <c r="F28" t="inlineStr"/>
+          <t>Prof CG, Prof AJ, Prof AX, Prof AH</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
       <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -1151,23 +1151,23 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sec F</t>
+          <t>Sec D</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>XXJJ</t>
+          <t>XXLG</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Prof H</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>3</v>
-      </c>
-      <c r="F29" t="inlineStr"/>
+          <t>Prof EA, Prof AR, Prof DB, Prof AF</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>2</v>
+      </c>
       <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -1176,21 +1176,21 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sec F</t>
+          <t>Sec E</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>XXH</t>
+          <t>XXLT</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Prof BO</t>
+          <t>Prof DZ</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -1201,23 +1201,23 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sec F</t>
+          <t>Sec E</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>XXHN</t>
+          <t>XXEL</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Prof F</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof BK</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>3</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -1226,21 +1226,21 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sec G</t>
+          <t>Sec E</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>XXIX</t>
+          <t>XXBC</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Prof BE</t>
+          <t>Prof AP</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
@@ -1251,21 +1251,21 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sec G</t>
+          <t>Sec E</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>XXFY</t>
+          <t>XXAQ</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Prof BF</t>
+          <t>Prof AM</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
@@ -1276,21 +1276,21 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sec G</t>
+          <t>Sec E</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>XXFU</t>
+          <t>XXOA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Prof CU</t>
+          <t>Prof BK</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -1301,23 +1301,23 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Sec G</t>
+          <t>Sec E</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>XXIC</t>
+          <t>XXMI</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Prof CM</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>2</v>
-      </c>
-      <c r="F35" t="inlineStr"/>
+          <t>Prof AX, Prof AI, Prof AF, Prof EI</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>2</v>
+      </c>
       <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
@@ -1326,17 +1326,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sec G</t>
+          <t>Sec E</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>XXAA</t>
+          <t>XXJZ</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Prof W</t>
+          <t>Prof DV, Prof EE, Prof EP, Prof CR</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -1351,21 +1351,21 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sec H</t>
+          <t>Sec F</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>XXIE</t>
+          <t>XXC</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Prof G</t>
+          <t>Prof BG</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
@@ -1376,17 +1376,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sec H</t>
+          <t>Sec F</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>XXDG</t>
+          <t>XXFI</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Prof Q</t>
+          <t>Prof DX</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1401,21 +1401,21 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sec H</t>
+          <t>Sec F</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>XXFA</t>
+          <t>XXFO</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Prof AU</t>
+          <t>Prof BD</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
@@ -1426,21 +1426,21 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sec H</t>
+          <t>Sec F</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>XXDP</t>
+          <t>XXQA</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Prof AX</t>
+          <t>Prof D</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -1451,23 +1451,23 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Sec H</t>
+          <t>Sec F</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>XXDF</t>
+          <t>XXOW</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Prof AA</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof AE</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>4</v>
+      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
@@ -1476,23 +1476,23 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Sec I</t>
+          <t>Sec F</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>XXEA</t>
+          <t>XXMX</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Prof AV</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>2</v>
-      </c>
-      <c r="F42" t="inlineStr"/>
+          <t>Prof DW, Prof EH, Prof DE, Prof X</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>2</v>
+      </c>
       <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
@@ -1501,23 +1501,23 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Sec I</t>
+          <t>Sec F</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>XXCT</t>
+          <t>XXBS</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Prof BE</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>4</v>
-      </c>
-      <c r="F43" t="inlineStr"/>
+          <t>Prof AA, Prof DA, Prof CM, Prof S</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>2</v>
+      </c>
       <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
@@ -1526,21 +1526,21 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Sec I</t>
+          <t>Sec G</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>XXBA</t>
+          <t>XXNK</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Prof BH</t>
+          <t>Prof DF</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
@@ -1551,17 +1551,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Sec I</t>
+          <t>Sec G</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>XXDX</t>
+          <t>XXGY</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Prof H</t>
+          <t>Prof AE</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -1576,23 +1576,23 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Sec I</t>
+          <t>Sec G</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>XXAC</t>
+          <t>XXPV</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Prof AJ</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof K</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>4</v>
+      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
@@ -1601,17 +1601,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Sec J</t>
+          <t>Sec G</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>XXGG</t>
+          <t>XXIP</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Prof AZ</t>
+          <t>Prof W</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -1626,21 +1626,21 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Sec J</t>
+          <t>Sec G</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>XXFD</t>
+          <t>XXJ</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Prof AU</t>
+          <t>Prof DF</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
@@ -1651,23 +1651,23 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Sec J</t>
+          <t>Sec G</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>XXHL</t>
+          <t>XXLO</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Prof AM</t>
-        </is>
-      </c>
-      <c r="E49" t="n">
-        <v>4</v>
-      </c>
-      <c r="F49" t="inlineStr"/>
+          <t>Prof CA, Prof AS, Prof BA, Prof M</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>2</v>
+      </c>
       <c r="G49" t="inlineStr"/>
     </row>
     <row r="50">
@@ -1676,23 +1676,23 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Sec J</t>
+          <t>Sec G</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>XXJE</t>
+          <t>XXAO</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Prof BB</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>2</v>
-      </c>
-      <c r="F50" t="inlineStr"/>
+          <t>Prof BU, Prof AA, Prof J, Prof EO</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>2</v>
+      </c>
       <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
@@ -1701,23 +1701,23 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Sec J</t>
+          <t>Sec H</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>XXW</t>
+          <t>XXFW</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Prof BI</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof U</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>4</v>
+      </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
     </row>
     <row r="52">
@@ -1726,21 +1726,21 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Sec K</t>
+          <t>Sec H</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>XXDJ</t>
+          <t>XXGB</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Prof CE</t>
+          <t>Prof BN</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -1751,21 +1751,21 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Sec K</t>
+          <t>Sec H</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>XXFZ</t>
+          <t>XXOD</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Prof CF</t>
+          <t>Prof DA</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
@@ -1776,21 +1776,21 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Sec K</t>
+          <t>Sec H</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>XXHP</t>
+          <t>XXMY</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Prof CJ</t>
+          <t>Prof AW</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
@@ -1801,21 +1801,21 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Sec K</t>
+          <t>Sec H</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>XXHW</t>
+          <t>XXNS</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Prof F</t>
+          <t>Prof CX</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
@@ -1826,17 +1826,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sec K</t>
+          <t>Sec H</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>XXJA</t>
+          <t>XXFP</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Prof CI</t>
+          <t>Prof EA, Prof EE, Prof BH, Prof CP</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -1851,23 +1851,23 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Sec L</t>
+          <t>Sec H</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>XXG</t>
+          <t>XXJX</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Prof AC</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>4</v>
-      </c>
-      <c r="F57" t="inlineStr"/>
+          <t>Prof AC, Prof EK, Prof DA, Prof EI</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="n">
+        <v>2</v>
+      </c>
       <c r="G57" t="inlineStr"/>
     </row>
     <row r="58">
@@ -1876,12 +1876,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Sec L</t>
+          <t>Sec I</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>XXBX</t>
+          <t>XXNM</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1901,21 +1901,21 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Sec L</t>
+          <t>Sec I</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>XXBH</t>
+          <t>XXMJ</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Prof BU</t>
+          <t>Prof CV</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
@@ -1926,21 +1926,21 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Sec L</t>
+          <t>Sec I</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>XXFX</t>
+          <t>XXRJ</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Prof T</t>
+          <t>Prof BA</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
@@ -1951,23 +1951,23 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Sec L</t>
+          <t>Sec I</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>XXCG</t>
+          <t>XXOI</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Prof G</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof AB</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>3</v>
+      </c>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
     </row>
     <row r="62">
@@ -1976,21 +1976,21 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Sec M</t>
+          <t>Sec I</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>XXDL</t>
+          <t>XXOL</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Prof AR</t>
+          <t>Prof CJ</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
@@ -2001,23 +2001,23 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Sec M</t>
+          <t>Sec I</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>XXAG</t>
+          <t>XXFT</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Prof F</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>4</v>
-      </c>
-      <c r="F63" t="inlineStr"/>
+          <t>Prof DS, Prof BP, Prof BG, Prof CK</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="n">
+        <v>2</v>
+      </c>
       <c r="G63" t="inlineStr"/>
     </row>
     <row r="64">
@@ -2026,23 +2026,23 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Sec M</t>
+          <t>Sec I</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>XXAO</t>
+          <t>XXQQ</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Prof T</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>2</v>
-      </c>
-      <c r="F64" t="inlineStr"/>
+          <t>Prof AP, Prof CZ, Prof DZ, Prof DW</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="n">
+        <v>2</v>
+      </c>
       <c r="G64" t="inlineStr"/>
     </row>
     <row r="65">
@@ -2051,17 +2051,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Sec M</t>
+          <t>Sec J</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>XXBM</t>
+          <t>XXLL</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Prof CT</t>
+          <t>Prof L</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -2076,23 +2076,23 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Sec M</t>
+          <t>Sec J</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>XXN</t>
+          <t>XXEV</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Prof Q</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof EF</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>4</v>
+      </c>
+      <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
     </row>
     <row r="67">
@@ -2101,17 +2101,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Sec N</t>
+          <t>Sec J</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>XXJP</t>
+          <t>XXOV</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Prof A</t>
+          <t>Prof V</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -2126,21 +2126,21 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Sec N</t>
+          <t>Sec J</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>XXC</t>
+          <t>XXQC</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Prof AU</t>
+          <t>Prof R</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
@@ -2151,21 +2151,21 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Sec N</t>
+          <t>Sec J</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>XXCH</t>
+          <t>XXAF</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Prof AZ</t>
+          <t>Prof W</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
@@ -2176,23 +2176,23 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Sec N</t>
+          <t>Sec J</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>XXDE</t>
+          <t>XXQG</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Prof CO</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>4</v>
-      </c>
-      <c r="F70" t="inlineStr"/>
+          <t>Prof I, Prof CB, Prof CP, Prof EF</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="n">
+        <v>2</v>
+      </c>
       <c r="G70" t="inlineStr"/>
     </row>
     <row r="71">
@@ -2201,17 +2201,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Sec N</t>
+          <t>Sec J</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>XXBS</t>
+          <t>XXHE</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Prof M</t>
+          <t>Prof CN, Prof ED, Prof AP, Prof CF</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -2226,21 +2226,21 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Sec O</t>
+          <t>Sec K</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>XXR</t>
+          <t>XXJB</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Prof CJ</t>
+          <t>Prof DI</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -2251,21 +2251,21 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Sec O</t>
+          <t>Sec K</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>XXIK</t>
+          <t>XXCS</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Prof CS</t>
+          <t>Prof AZ</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
@@ -2276,21 +2276,21 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Sec O</t>
+          <t>Sec K</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>XXCL</t>
+          <t>XXCV</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Prof Z</t>
+          <t>Prof Q</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
@@ -2301,21 +2301,21 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Sec O</t>
+          <t>Sec K</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>XXGJ</t>
+          <t>XXRV</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Prof AF</t>
+          <t>Prof ED</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -2326,23 +2326,23 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Sec O</t>
+          <t>Sec K</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>XXHE</t>
+          <t>XXNI</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Prof BD</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof I</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>4</v>
+      </c>
+      <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
     </row>
     <row r="77">
@@ -2351,23 +2351,23 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Sec P</t>
+          <t>Sec K</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>XXFC</t>
+          <t>XXOP</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Prof BY</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>4</v>
-      </c>
-      <c r="F77" t="inlineStr"/>
+          <t>Prof ED, Prof DJ, Prof CF, Prof Z</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="n">
+        <v>2</v>
+      </c>
       <c r="G77" t="inlineStr"/>
     </row>
     <row r="78">
@@ -2376,23 +2376,23 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Sec P</t>
+          <t>Sec K</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>XXJI</t>
+          <t>XXAT</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Prof AP</t>
-        </is>
-      </c>
-      <c r="E78" t="n">
-        <v>4</v>
-      </c>
-      <c r="F78" t="inlineStr"/>
+          <t>Prof CJ, Prof EK, Prof DT, Prof DH</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="n">
+        <v>2</v>
+      </c>
       <c r="G78" t="inlineStr"/>
     </row>
     <row r="79">
@@ -2401,21 +2401,21 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Sec P</t>
+          <t>Sec L</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>XXCN</t>
+          <t>XXDN</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Prof BD</t>
+          <t>Prof BC</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
@@ -2426,21 +2426,21 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Sec P</t>
+          <t>Sec L</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>XXHY</t>
+          <t>XXGL</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Prof N</t>
+          <t>Prof BY</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
@@ -2451,23 +2451,23 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Sec P</t>
+          <t>Sec L</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>XXE</t>
+          <t>XXEJ</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Prof N</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof CB</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>4</v>
+      </c>
+      <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
     </row>
     <row r="82">
@@ -2476,21 +2476,21 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Sec Q</t>
+          <t>Sec L</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>XXBP</t>
+          <t>XXLY</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Prof BG</t>
+          <t>Prof AQ</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -2501,17 +2501,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Sec Q</t>
+          <t>Sec L</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>XXHX</t>
+          <t>XXIH</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Prof V</t>
+          <t>Prof AO</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -2526,23 +2526,23 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Sec Q</t>
+          <t>Sec L</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>XXHO</t>
+          <t>XXRF</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Prof BS</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
-        <v>2</v>
-      </c>
-      <c r="F84" t="inlineStr"/>
+          <t>Prof BH, Prof BC, Prof BZ, Prof DN</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="n">
+        <v>2</v>
+      </c>
       <c r="G84" t="inlineStr"/>
     </row>
     <row r="85">
@@ -2551,23 +2551,23 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Sec Q</t>
+          <t>Sec L</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>XXCC</t>
+          <t>XXCY</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Prof CM</t>
-        </is>
-      </c>
-      <c r="E85" t="n">
-        <v>2</v>
-      </c>
-      <c r="F85" t="inlineStr"/>
+          <t>Prof BX, Prof Y, Prof AY, Prof AM</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="n">
+        <v>2</v>
+      </c>
       <c r="G85" t="inlineStr"/>
     </row>
     <row r="86">
@@ -2576,23 +2576,23 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Sec Q</t>
+          <t>Sec M</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>XXEJ</t>
+          <t>XXDF</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Prof BZ</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof EP</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>3</v>
+      </c>
+      <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
     </row>
     <row r="87">
@@ -2601,17 +2601,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Sec R</t>
+          <t>Sec M</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>XXFJ</t>
+          <t>XXEW</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Prof W</t>
+          <t>Prof Q</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -2626,17 +2626,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Sec R</t>
+          <t>Sec M</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>XXCA</t>
+          <t>XXRZ</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Prof AU</t>
+          <t>Prof AJ</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -2651,21 +2651,21 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Sec R</t>
+          <t>Sec M</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>XXIV</t>
+          <t>XXEH</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Prof AM</t>
+          <t>Prof AK</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
@@ -2676,21 +2676,21 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Sec R</t>
+          <t>Sec M</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>XXFF</t>
+          <t>XXRU</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Prof AV</t>
+          <t>Prof EC</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
@@ -2701,17 +2701,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Sec R</t>
+          <t>Sec M</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>XXDQ</t>
+          <t>XXRI</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Prof BZ</t>
+          <t>Prof AX, Prof AS, Prof AD, Prof V</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -2726,23 +2726,23 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Sec S</t>
+          <t>Sec M</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>XXJK</t>
+          <t>XXLW</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Prof BD</t>
-        </is>
-      </c>
-      <c r="E92" t="n">
-        <v>3</v>
-      </c>
-      <c r="F92" t="inlineStr"/>
+          <t>Prof DF, Prof BI, Prof A, Prof BW</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="n">
+        <v>2</v>
+      </c>
       <c r="G92" t="inlineStr"/>
     </row>
     <row r="93">
@@ -2751,17 +2751,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Sec S</t>
+          <t>Sec N</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>XXFI</t>
+          <t>XXGP</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Prof AQ</t>
+          <t>Prof DY</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -2776,21 +2776,21 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Sec S</t>
+          <t>Sec N</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>XXEX</t>
+          <t>XXMS</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Prof U</t>
+          <t>Prof DC</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
@@ -2801,17 +2801,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Sec S</t>
+          <t>Sec N</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>XXBV</t>
+          <t>XXGF</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Prof AV</t>
+          <t>Prof EO</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -2826,23 +2826,23 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Sec S</t>
+          <t>Sec N</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>XXHD</t>
+          <t>XXPI</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Prof U</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof BJ</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>3</v>
+      </c>
+      <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
     </row>
     <row r="97">
@@ -2851,21 +2851,21 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Sec T</t>
+          <t>Sec N</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>XXGE</t>
+          <t>XXOF</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Prof BL</t>
+          <t>Prof CQ</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
@@ -2876,23 +2876,23 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Sec T</t>
+          <t>Sec N</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>XXEQ</t>
+          <t>XXIS</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Prof V</t>
-        </is>
-      </c>
-      <c r="E98" t="n">
-        <v>2</v>
-      </c>
-      <c r="F98" t="inlineStr"/>
+          <t>Prof BR, Prof AW, Prof ET, Prof DZ</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="n">
+        <v>2</v>
+      </c>
       <c r="G98" t="inlineStr"/>
     </row>
     <row r="99">
@@ -2901,23 +2901,23 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Sec T</t>
+          <t>Sec N</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>XXAX</t>
+          <t>XXPM</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Prof AS</t>
-        </is>
-      </c>
-      <c r="E99" t="n">
-        <v>3</v>
-      </c>
-      <c r="F99" t="inlineStr"/>
+          <t>Prof P, Prof ES, Prof DV, Prof AY</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="n">
+        <v>2</v>
+      </c>
       <c r="G99" t="inlineStr"/>
     </row>
     <row r="100">
@@ -2926,17 +2926,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Sec T</t>
+          <t>Sec O</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>XXEE</t>
+          <t>XXHJ</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Prof BZ</t>
+          <t>Prof DX</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -2951,23 +2951,23 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Sec T</t>
+          <t>Sec O</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>XXDK</t>
+          <t>XXPU</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Prof AD</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof DS</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>4</v>
+      </c>
+      <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
     </row>
     <row r="102">
@@ -2976,21 +2976,21 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Sec U</t>
+          <t>Sec O</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>XXJ</t>
+          <t>XXNU</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Prof BJ</t>
+          <t>Prof CM</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
@@ -3001,21 +3001,21 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Sec U</t>
+          <t>Sec O</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>XXDC</t>
+          <t>XXMW</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Prof AB</t>
+          <t>Prof BD</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3026,17 +3026,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Sec U</t>
+          <t>Sec O</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>XXU</t>
+          <t>XXKT</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Prof AM</t>
+          <t>Prof K</t>
         </is>
       </c>
       <c r="E104" t="n">
@@ -3051,23 +3051,23 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Sec U</t>
+          <t>Sec O</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>XXIJ</t>
+          <t>XXJT</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Prof BO</t>
-        </is>
-      </c>
-      <c r="E105" t="n">
-        <v>3</v>
-      </c>
-      <c r="F105" t="inlineStr"/>
+          <t>Prof EL, Prof B, Prof EJ, Prof EA</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="n">
+        <v>2</v>
+      </c>
       <c r="G105" t="inlineStr"/>
     </row>
     <row r="106">
@@ -3076,17 +3076,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Sec U</t>
+          <t>Sec O</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>XXGF</t>
+          <t>XXBX</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Prof K</t>
+          <t>Prof DM, Prof BO, Prof BE, Prof J</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -3101,17 +3101,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Sec V</t>
+          <t>Sec P</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>XXCI</t>
+          <t>XXCE</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Prof CI</t>
+          <t>Prof CE</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -3126,21 +3126,21 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Sec V</t>
+          <t>Sec P</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>XXHA</t>
+          <t>XXLM</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Prof BI</t>
+          <t>Prof DO</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
@@ -3151,17 +3151,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Sec V</t>
+          <t>Sec P</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>XXBL</t>
+          <t>XXHR</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Prof BS</t>
+          <t>Prof CS</t>
         </is>
       </c>
       <c r="E109" t="n">
@@ -3176,21 +3176,21 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Sec V</t>
+          <t>Sec P</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>XXGL</t>
+          <t>XXOC</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Prof BZ</t>
+          <t>Prof AB</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -3201,23 +3201,23 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Sec V</t>
+          <t>Sec P</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>XXIN</t>
+          <t>XXKJ</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Prof BK</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof CU</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>4</v>
+      </c>
+      <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
     </row>
     <row r="112">
@@ -3226,23 +3226,23 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Sec W</t>
+          <t>Sec P</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>XXFQ</t>
+          <t>XXKU</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Prof BF</t>
-        </is>
-      </c>
-      <c r="E112" t="n">
-        <v>2</v>
-      </c>
-      <c r="F112" t="inlineStr"/>
+          <t>Prof CL, Prof EQ, Prof DN, Prof CE</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="n">
+        <v>2</v>
+      </c>
       <c r="G112" t="inlineStr"/>
     </row>
     <row r="113">
@@ -3251,23 +3251,23 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Sec W</t>
+          <t>Sec P</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>XXAM</t>
+          <t>XXAU</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Prof AG</t>
-        </is>
-      </c>
-      <c r="E113" t="n">
-        <v>2</v>
-      </c>
-      <c r="F113" t="inlineStr"/>
+          <t>Prof L, Prof BU, Prof AR, Prof BB</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="n">
+        <v>2</v>
+      </c>
       <c r="G113" t="inlineStr"/>
     </row>
     <row r="114">
@@ -3276,21 +3276,21 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Sec W</t>
+          <t>Sec Q</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>XXIF</t>
+          <t>XXID</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Prof Q</t>
+          <t>Prof BH</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
@@ -3301,17 +3301,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Sec W</t>
+          <t>Sec Q</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>XXGY</t>
+          <t>XXIC</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Prof BG</t>
+          <t>Prof CC</t>
         </is>
       </c>
       <c r="E115" t="n">
@@ -3326,23 +3326,23 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Sec W</t>
+          <t>Sec Q</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>XXIS</t>
+          <t>XXQV</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Prof CH</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof CL</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>4</v>
+      </c>
+      <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
     </row>
     <row r="117">
@@ -3351,21 +3351,21 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Sec X</t>
+          <t>Sec Q</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>XXBY</t>
+          <t>XXKF</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Prof AW</t>
+          <t>Prof DZ</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -3376,17 +3376,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Sec X</t>
+          <t>Sec Q</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>XXB</t>
+          <t>XXNZ</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Prof BN</t>
+          <t>Prof DW</t>
         </is>
       </c>
       <c r="E118" t="n">
@@ -3401,23 +3401,23 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Sec X</t>
+          <t>Sec Q</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>XXGW</t>
+          <t>XXFY</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Prof BY</t>
-        </is>
-      </c>
-      <c r="E119" t="n">
-        <v>4</v>
-      </c>
-      <c r="F119" t="inlineStr"/>
+          <t>Prof EF, Prof DJ, Prof BA, Prof ED</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="n">
+        <v>2</v>
+      </c>
       <c r="G119" t="inlineStr"/>
     </row>
     <row r="120">
@@ -3426,23 +3426,23 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Sec X</t>
+          <t>Sec Q</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>XXEF</t>
+          <t>XXCX</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Prof P</t>
-        </is>
-      </c>
-      <c r="E120" t="n">
-        <v>4</v>
-      </c>
-      <c r="F120" t="inlineStr"/>
+          <t>Prof BR, Prof AJ, Prof CG, Prof AB</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="n">
+        <v>2</v>
+      </c>
       <c r="G120" t="inlineStr"/>
     </row>
     <row r="121">
@@ -3451,23 +3451,23 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Sec X</t>
+          <t>Sec R</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>XXBJ</t>
+          <t>XXFK</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Prof CP</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof DJ</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>4</v>
+      </c>
+      <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
     </row>
     <row r="122">
@@ -3476,21 +3476,21 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Sec Y</t>
+          <t>Sec R</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>XXGR</t>
+          <t>XXBM</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Prof AY</t>
+          <t>Prof B</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
@@ -3501,17 +3501,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Sec Y</t>
+          <t>Sec R</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>XXL</t>
+          <t>XXCQ</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Prof AS</t>
+          <t>Prof BP</t>
         </is>
       </c>
       <c r="E123" t="n">
@@ -3526,17 +3526,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Sec Y</t>
+          <t>Sec R</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>XXS</t>
+          <t>XXW</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Prof CR</t>
+          <t>Prof AF</t>
         </is>
       </c>
       <c r="E124" t="n">
@@ -3551,21 +3551,21 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Sec Y</t>
+          <t>Sec R</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>XXGS</t>
+          <t>XXAH</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Prof AO</t>
+          <t>Prof N</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -3576,17 +3576,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Sec Y</t>
+          <t>Sec R</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>XXDS</t>
+          <t>XXNG</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Prof BY</t>
+          <t>Prof O, Prof BJ, Prof BW, Prof DV</t>
         </is>
       </c>
       <c r="E126" t="inlineStr"/>
@@ -3601,23 +3601,23 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Sec Z</t>
+          <t>Sec R</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>XXAJ</t>
+          <t>XXGU</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Prof AG</t>
-        </is>
-      </c>
-      <c r="E127" t="n">
-        <v>3</v>
-      </c>
-      <c r="F127" t="inlineStr"/>
+          <t>Prof Q, Prof W, Prof CD, Prof EM</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="n">
+        <v>2</v>
+      </c>
       <c r="G127" t="inlineStr"/>
     </row>
     <row r="128">
@@ -3626,17 +3626,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Sec Z</t>
+          <t>Sec S</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>XXHG</t>
+          <t>XXJL</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Prof AT</t>
+          <t>Prof EH</t>
         </is>
       </c>
       <c r="E128" t="n">
@@ -3651,21 +3651,21 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Sec Z</t>
+          <t>Sec S</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>XXIM</t>
+          <t>XXBU</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Prof BO</t>
+          <t>Prof BC</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -3676,21 +3676,21 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Sec Z</t>
+          <t>Sec S</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>XXFR</t>
+          <t>XXEK</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Prof I</t>
+          <t>Prof AV</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -3701,23 +3701,23 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Sec Z</t>
+          <t>Sec S</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>XXCX</t>
+          <t>XXKM</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Prof BG</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof EH</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>4</v>
+      </c>
+      <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
     </row>
     <row r="132">
@@ -3726,17 +3726,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Sec AA</t>
+          <t>Sec S</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>XXJH</t>
+          <t>XXQ</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Prof AL</t>
+          <t>Prof M</t>
         </is>
       </c>
       <c r="E132" t="n">
@@ -3751,23 +3751,23 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Sec AA</t>
+          <t>Sec S</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>XXBR</t>
+          <t>XXLX</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Prof CN</t>
-        </is>
-      </c>
-      <c r="E133" t="n">
-        <v>3</v>
-      </c>
-      <c r="F133" t="inlineStr"/>
+          <t>Prof BG, Prof EL, Prof E, Prof CX</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="n">
+        <v>2</v>
+      </c>
       <c r="G133" t="inlineStr"/>
     </row>
     <row r="134">
@@ -3776,23 +3776,23 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Sec AA</t>
+          <t>Sec S</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>XXFW</t>
+          <t>XXJI</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Prof BQ</t>
-        </is>
-      </c>
-      <c r="E134" t="n">
-        <v>3</v>
-      </c>
-      <c r="F134" t="inlineStr"/>
+          <t>Prof DS, Prof BN, Prof ER, Prof CN</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="n">
+        <v>2</v>
+      </c>
       <c r="G134" t="inlineStr"/>
     </row>
     <row r="135">
@@ -3801,21 +3801,21 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Sec AA</t>
+          <t>Sec T</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>XXBF</t>
+          <t>XXNQ</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Prof AE</t>
+          <t>Prof BK</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
@@ -3826,23 +3826,23 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Sec AA</t>
+          <t>Sec T</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>XXAN</t>
+          <t>XXBO</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Prof T</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof BV</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>4</v>
+      </c>
+      <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
     </row>
     <row r="137">
@@ -3851,17 +3851,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Sec AB</t>
+          <t>Sec T</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>XXHC</t>
+          <t>XXEU</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Prof AS</t>
+          <t>Prof DQ</t>
         </is>
       </c>
       <c r="E137" t="n">
@@ -3876,17 +3876,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Sec AB</t>
+          <t>Sec T</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>XXEM</t>
+          <t>XXAZ</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Prof AR</t>
+          <t>Prof DP</t>
         </is>
       </c>
       <c r="E138" t="n">
@@ -3901,21 +3901,21 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Sec AB</t>
+          <t>Sec T</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>XXFE</t>
+          <t>XXAW</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Prof BU</t>
+          <t>Prof B</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
@@ -3926,23 +3926,23 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Sec AB</t>
+          <t>Sec T</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>XXEP</t>
+          <t>XXGA</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Prof AJ</t>
-        </is>
-      </c>
-      <c r="E140" t="n">
-        <v>3</v>
-      </c>
-      <c r="F140" t="inlineStr"/>
+          <t>Prof BS, Prof AW, Prof DF, Prof V</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="n">
+        <v>2</v>
+      </c>
       <c r="G140" t="inlineStr"/>
     </row>
     <row r="141">
@@ -3951,17 +3951,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Sec AB</t>
+          <t>Sec T</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>XXJB</t>
+          <t>XXKY</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Prof BV</t>
+          <t>Prof CI, Prof EI, Prof CV, Prof AG</t>
         </is>
       </c>
       <c r="E141" t="inlineStr"/>
@@ -3976,21 +3976,21 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Sec AC</t>
+          <t>Sec U</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>XXGD</t>
+          <t>XXLQ</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Prof BG</t>
+          <t>Prof ES</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
@@ -4001,21 +4001,21 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Sec AC</t>
+          <t>Sec U</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>XXHI</t>
+          <t>XXDG</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Prof S</t>
+          <t>Prof BJ</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
@@ -4026,17 +4026,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Sec AC</t>
+          <t>Sec U</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>XXHR</t>
+          <t>XXBH</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Prof CA</t>
+          <t>Prof EF</t>
         </is>
       </c>
       <c r="E144" t="n">
@@ -4051,21 +4051,21 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Sec AC</t>
+          <t>Sec U</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>XXHS</t>
+          <t>XXLJ</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Prof L</t>
+          <t>Prof AZ</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
@@ -4076,23 +4076,23 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Sec AC</t>
+          <t>Sec U</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>XXIB</t>
+          <t>XXIY</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Prof B</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof AV</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>3</v>
+      </c>
+      <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
     </row>
     <row r="147">
@@ -4101,23 +4101,23 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Sec AD</t>
+          <t>Sec U</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>XXIU</t>
+          <t>XXHW</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Prof AE</t>
-        </is>
-      </c>
-      <c r="E147" t="n">
-        <v>4</v>
-      </c>
-      <c r="F147" t="inlineStr"/>
+          <t>Prof EL, Prof BC, Prof CU, Prof EG</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="n">
+        <v>2</v>
+      </c>
       <c r="G147" t="inlineStr"/>
     </row>
     <row r="148">
@@ -4126,23 +4126,23 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Sec AD</t>
+          <t>Sec U</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>XXAB</t>
+          <t>XXDP</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Prof O</t>
-        </is>
-      </c>
-      <c r="E148" t="n">
-        <v>4</v>
-      </c>
-      <c r="F148" t="inlineStr"/>
+          <t>Prof DV, Prof AL, Prof W, Prof I</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="n">
+        <v>2</v>
+      </c>
       <c r="G148" t="inlineStr"/>
     </row>
     <row r="149">
@@ -4151,21 +4151,21 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Sec AD</t>
+          <t>Sec V</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>XXGH</t>
+          <t>XXJQ</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Prof B</t>
+          <t>Prof AI</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
@@ -4176,21 +4176,21 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Sec AD</t>
+          <t>Sec V</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>XXGO</t>
+          <t>XXOB</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Prof AO</t>
+          <t>Prof DJ</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
@@ -4201,23 +4201,23 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Sec AD</t>
+          <t>Sec V</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>XXEP</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Prof AF</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof M</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>3</v>
+      </c>
+      <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
     </row>
     <row r="152">
@@ -4226,21 +4226,21 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Sec AE</t>
+          <t>Sec V</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>XXGM</t>
+          <t>XXSE</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Prof CH</t>
+          <t>Prof AZ</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -4251,21 +4251,21 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Sec AE</t>
+          <t>Sec V</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>XXDZ</t>
+          <t>XXKO</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Prof BO</t>
+          <t>Prof CM</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
@@ -4276,23 +4276,23 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Sec AE</t>
+          <t>Sec V</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>XXFM</t>
+          <t>XXOE</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Prof CC</t>
-        </is>
-      </c>
-      <c r="E154" t="n">
-        <v>4</v>
-      </c>
-      <c r="F154" t="inlineStr"/>
+          <t>Prof AH, Prof EG, Prof CN, Prof EJ</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="n">
+        <v>2</v>
+      </c>
       <c r="G154" t="inlineStr"/>
     </row>
     <row r="155">
@@ -4301,23 +4301,23 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Sec AE</t>
+          <t>Sec V</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>XXAR</t>
+          <t>XXDH</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Prof CU</t>
-        </is>
-      </c>
-      <c r="E155" t="n">
-        <v>3</v>
-      </c>
-      <c r="F155" t="inlineStr"/>
+          <t>Prof M, Prof EH, Prof BT, Prof DK</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="n">
+        <v>2</v>
+      </c>
       <c r="G155" t="inlineStr"/>
     </row>
     <row r="156">
@@ -4326,23 +4326,23 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Sec AE</t>
+          <t>Sec W</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>XXID</t>
+          <t>XXGD</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Prof AT</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof BD</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>4</v>
+      </c>
+      <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
     </row>
     <row r="157">
@@ -4351,21 +4351,21 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Sec AF</t>
+          <t>Sec W</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>XXIY</t>
+          <t>XXCW</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Prof S</t>
+          <t>Prof X</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr"/>
@@ -4376,21 +4376,21 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Sec AF</t>
+          <t>Sec W</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>XXA</t>
+          <t>XXOS</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Prof S</t>
+          <t>Prof DD</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr"/>
@@ -4401,21 +4401,21 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Sec AF</t>
+          <t>Sec W</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>XXK</t>
+          <t>XXKD</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Prof CR</t>
+          <t>Prof BK</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr"/>
@@ -4426,17 +4426,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Sec AF</t>
+          <t>Sec W</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>XXEI</t>
+          <t>XXQH</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Prof BA</t>
+          <t>Prof CH</t>
         </is>
       </c>
       <c r="E160" t="n">
@@ -4451,17 +4451,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Sec AF</t>
+          <t>Sec W</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>XXEH</t>
+          <t>XXPG</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Prof AD</t>
+          <t>Prof DD, Prof CE, Prof BF, Prof DZ</t>
         </is>
       </c>
       <c r="E161" t="inlineStr"/>
@@ -4476,23 +4476,23 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Sec AG</t>
+          <t>Sec W</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>XXCW</t>
+          <t>XXNX</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Prof Y</t>
-        </is>
-      </c>
-      <c r="E162" t="n">
-        <v>4</v>
-      </c>
-      <c r="F162" t="inlineStr"/>
+          <t>Prof AA, Prof CW, Prof CG, Prof AL</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="n">
+        <v>2</v>
+      </c>
       <c r="G162" t="inlineStr"/>
     </row>
     <row r="163">
@@ -4501,21 +4501,21 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Sec AG</t>
+          <t>Sec X</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>XXI</t>
+          <t>XXBI</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Prof S</t>
+          <t>Prof BG</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr"/>
@@ -4526,21 +4526,21 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Sec AG</t>
+          <t>Sec X</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>XXFK</t>
+          <t>XXND</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Prof Q</t>
+          <t>Prof E</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
@@ -4551,21 +4551,21 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Sec AG</t>
+          <t>Sec X</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>XXHT</t>
+          <t>XXEY</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Prof AG</t>
+          <t>Prof BX</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr"/>
@@ -4576,23 +4576,23 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Sec AG</t>
+          <t>Sec X</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>XXFG</t>
+          <t>XXAS</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Prof A</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof AI</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>3</v>
+      </c>
+      <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
     </row>
     <row r="167">
@@ -4601,21 +4601,21 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Sec AH</t>
+          <t>Sec X</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>XXIA</t>
+          <t>XXKK</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Prof D</t>
+          <t>Prof DH</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
@@ -4626,23 +4626,23 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Sec AH</t>
+          <t>Sec X</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>XXAU</t>
+          <t>XXGG</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Prof AE</t>
-        </is>
-      </c>
-      <c r="E168" t="n">
-        <v>3</v>
-      </c>
-      <c r="F168" t="inlineStr"/>
+          <t>Prof BB, Prof BY, Prof BG, Prof E</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="n">
+        <v>2</v>
+      </c>
       <c r="G168" t="inlineStr"/>
     </row>
     <row r="169">
@@ -4651,23 +4651,23 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Sec AH</t>
+          <t>Sec X</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>XXBG</t>
+          <t>XXEO</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Prof AR</t>
-        </is>
-      </c>
-      <c r="E169" t="n">
-        <v>3</v>
-      </c>
-      <c r="F169" t="inlineStr"/>
+          <t>Prof X, Prof F, Prof EC, Prof O</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="n">
+        <v>2</v>
+      </c>
       <c r="G169" t="inlineStr"/>
     </row>
     <row r="170">
@@ -4676,17 +4676,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Sec AH</t>
+          <t>Sec Y</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>XXED</t>
+          <t>XXSB</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Prof Z</t>
+          <t>Prof C</t>
         </is>
       </c>
       <c r="E170" t="n">
@@ -4701,23 +4701,23 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Sec AH</t>
+          <t>Sec Y</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>XXHH</t>
+          <t>XXAR</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Prof R</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof Q</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>4</v>
+      </c>
+      <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr"/>
     </row>
     <row r="172">
@@ -4726,21 +4726,21 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Sec AI</t>
+          <t>Sec Y</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>XXHV</t>
+          <t>XXRN</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Prof CU</t>
+          <t>Prof DD</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr"/>
@@ -4751,17 +4751,17 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Sec AI</t>
+          <t>Sec Y</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>XXAQ</t>
+          <t>XXDT</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Prof AX</t>
+          <t>Prof BE</t>
         </is>
       </c>
       <c r="E173" t="n">
@@ -4776,21 +4776,21 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Sec AI</t>
+          <t>Sec Y</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>XXAL</t>
+          <t>XXKA</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Prof CJ</t>
+          <t>Prof Z</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr"/>
@@ -4801,23 +4801,23 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Sec AI</t>
+          <t>Sec Y</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>XXCK</t>
+          <t>XXKL</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Prof C</t>
-        </is>
-      </c>
-      <c r="E175" t="n">
-        <v>2</v>
-      </c>
-      <c r="F175" t="inlineStr"/>
+          <t>Prof BX, Prof CF, Prof DS, Prof EG</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="n">
+        <v>2</v>
+      </c>
       <c r="G175" t="inlineStr"/>
     </row>
     <row r="176">
@@ -4826,17 +4826,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Sec AI</t>
+          <t>Sec Y</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>XXHB</t>
+          <t>XXFS</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Prof BI</t>
+          <t>Prof DI, Prof H, Prof BJ, Prof DA</t>
         </is>
       </c>
       <c r="E176" t="inlineStr"/>
@@ -4851,17 +4851,17 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Sec AJ</t>
+          <t>Sec Z</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>XXIW</t>
+          <t>XXFA</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Prof CI</t>
+          <t>Prof D</t>
         </is>
       </c>
       <c r="E177" t="n">
@@ -4876,17 +4876,17 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Sec AJ</t>
+          <t>Sec Z</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>XXAF</t>
+          <t>XXDR</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Prof D</t>
+          <t>Prof DD</t>
         </is>
       </c>
       <c r="E178" t="n">
@@ -4901,7 +4901,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Sec AJ</t>
+          <t>Sec Z</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -4911,7 +4911,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Prof AI</t>
+          <t>Prof CF</t>
         </is>
       </c>
       <c r="E179" t="n">
@@ -4926,17 +4926,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Sec AJ</t>
+          <t>Sec Z</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>XXBT</t>
+          <t>XXBZ</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Prof H</t>
+          <t>Prof CF</t>
         </is>
       </c>
       <c r="E180" t="n">
@@ -4951,23 +4951,23 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Sec AJ</t>
+          <t>Sec Z</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>XXBW</t>
+          <t>XXNA</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Prof CE</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof DG</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>4</v>
+      </c>
+      <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr"/>
     </row>
     <row r="182">
@@ -4976,23 +4976,23 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Sec AK</t>
+          <t>Sec Z</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>XXBU</t>
+          <t>XXMA</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Prof L</t>
-        </is>
-      </c>
-      <c r="E182" t="n">
-        <v>3</v>
-      </c>
-      <c r="F182" t="inlineStr"/>
+          <t>Prof DS, Prof CH, Prof J, Prof K</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="n">
+        <v>2</v>
+      </c>
       <c r="G182" t="inlineStr"/>
     </row>
     <row r="183">
@@ -5001,23 +5001,23 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Sec AK</t>
+          <t>Sec Z</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>XXCB</t>
+          <t>XXZ</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Prof AO</t>
-        </is>
-      </c>
-      <c r="E183" t="n">
-        <v>3</v>
-      </c>
-      <c r="F183" t="inlineStr"/>
+          <t>Prof AZ, Prof AB, Prof CO, Prof DL</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="n">
+        <v>2</v>
+      </c>
       <c r="G183" t="inlineStr"/>
     </row>
     <row r="184">
@@ -5026,21 +5026,21 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Sec AK</t>
+          <t>Sec AA</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>XXAE</t>
+          <t>XXBR</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Prof BH</t>
+          <t>Prof W</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr"/>
@@ -5051,21 +5051,21 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Sec AK</t>
+          <t>Sec AA</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>XXDO</t>
+          <t>XXMO</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Prof AJ</t>
+          <t>Prof CB</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
@@ -5076,23 +5076,23 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Sec AK</t>
+          <t>Sec AA</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>XXCJ</t>
+          <t>XXNO</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Prof J</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof AG</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>4</v>
+      </c>
+      <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
     </row>
     <row r="187">
@@ -5101,21 +5101,21 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Sec AL</t>
+          <t>Sec AA</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>XXIQ</t>
+          <t>XXHU</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Prof AR</t>
+          <t>Prof E</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr"/>
@@ -5126,21 +5126,21 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Sec AL</t>
+          <t>Sec AA</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>XXJM</t>
+          <t>XXHN</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Prof K</t>
+          <t>Prof AG</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr"/>
@@ -5151,23 +5151,23 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Sec AL</t>
+          <t>Sec AA</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>XXGI</t>
+          <t>XXNH</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Prof CL</t>
-        </is>
-      </c>
-      <c r="E189" t="n">
-        <v>4</v>
-      </c>
-      <c r="F189" t="inlineStr"/>
+          <t>Prof AF, Prof P, Prof EB, Prof BL</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="n">
+        <v>2</v>
+      </c>
       <c r="G189" t="inlineStr"/>
     </row>
     <row r="190">
@@ -5176,23 +5176,23 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Sec AL</t>
+          <t>Sec AA</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>XXAI</t>
+          <t>XXDX</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Prof CV</t>
-        </is>
-      </c>
-      <c r="E190" t="n">
-        <v>3</v>
-      </c>
-      <c r="F190" t="inlineStr"/>
+          <t>Prof BO, Prof BN, Prof BM, Prof BD</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="n">
+        <v>2</v>
+      </c>
       <c r="G190" t="inlineStr"/>
     </row>
     <row r="191">
@@ -5201,23 +5201,23 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Sec AL</t>
+          <t>Sec AB</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>XXJD</t>
+          <t>XXNJ</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Prof CU</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof U</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>3</v>
+      </c>
+      <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr"/>
     </row>
     <row r="192">
@@ -5226,21 +5226,21 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Sec AM</t>
+          <t>Sec AB</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>XXFN</t>
+          <t>XXKV</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Prof P</t>
+          <t>Prof BT</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
@@ -5251,21 +5251,21 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Sec AM</t>
+          <t>Sec AB</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>XXBB</t>
+          <t>XXAX</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Prof BM</t>
+          <t>Prof BR</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
@@ -5276,21 +5276,21 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Sec AM</t>
+          <t>Sec AB</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>XXFS</t>
+          <t>XXQT</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Prof BH</t>
+          <t>Prof CC</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
@@ -5301,17 +5301,17 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Sec AM</t>
+          <t>Sec AB</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>XXFT</t>
+          <t>XXNV</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Prof BF</t>
+          <t>Prof AC</t>
         </is>
       </c>
       <c r="E195" t="n">
@@ -5326,17 +5326,17 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Sec AM</t>
+          <t>Sec AB</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>XXAD</t>
+          <t>XXNC</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Prof O</t>
+          <t>Prof DR, Prof BZ, Prof EH, Prof O</t>
         </is>
       </c>
       <c r="E196" t="inlineStr"/>
@@ -5351,23 +5351,23 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Sec AN</t>
+          <t>Sec AB</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>XXEV</t>
+          <t>XXCD</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Prof CJ</t>
-        </is>
-      </c>
-      <c r="E197" t="n">
-        <v>2</v>
-      </c>
-      <c r="F197" t="inlineStr"/>
+          <t>Prof EI, Prof AM, Prof BB, Prof EJ</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="n">
+        <v>2</v>
+      </c>
       <c r="G197" t="inlineStr"/>
     </row>
     <row r="198">
@@ -5376,21 +5376,21 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Sec AN</t>
+          <t>Sec AC</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>XXZ</t>
+          <t>XXQS</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Prof CA</t>
+          <t>Prof DN</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
@@ -5401,21 +5401,21 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Sec AN</t>
+          <t>Sec AC</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>XXGX</t>
+          <t>XXKQ</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Prof Z</t>
+          <t>Prof EO</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
@@ -5426,21 +5426,21 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Sec AN</t>
+          <t>Sec AC</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>XXIT</t>
+          <t>XXM</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Prof G</t>
+          <t>Prof CE</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
@@ -5451,23 +5451,23 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Sec AN</t>
+          <t>Sec AC</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>XXEB</t>
+          <t>XXLB</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Prof AO</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof E</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>3</v>
+      </c>
+      <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr"/>
     </row>
     <row r="202">
@@ -5476,17 +5476,17 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Sec AO</t>
+          <t>Sec AC</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>XXGC</t>
+          <t>XXFQ</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Prof BS</t>
+          <t>Prof N</t>
         </is>
       </c>
       <c r="E202" t="n">
@@ -5501,23 +5501,23 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Sec AO</t>
+          <t>Sec AC</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>XXF</t>
+          <t>XXHD</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Prof BY</t>
-        </is>
-      </c>
-      <c r="E203" t="n">
-        <v>2</v>
-      </c>
-      <c r="F203" t="inlineStr"/>
+          <t>Prof CX, Prof AX, Prof AW, Prof AV</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="n">
+        <v>2</v>
+      </c>
       <c r="G203" t="inlineStr"/>
     </row>
     <row r="204">
@@ -5526,23 +5526,23 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Sec AO</t>
+          <t>Sec AC</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>XXHK</t>
+          <t>XXIQ</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Prof BP</t>
-        </is>
-      </c>
-      <c r="E204" t="n">
-        <v>3</v>
-      </c>
-      <c r="F204" t="inlineStr"/>
+          <t>Prof BK, Prof BY, Prof BS, Prof BF</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="n">
+        <v>2</v>
+      </c>
       <c r="G204" t="inlineStr"/>
     </row>
     <row r="205">
@@ -5551,21 +5551,21 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Sec AO</t>
+          <t>Sec AD</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>XXO</t>
+          <t>XXQU</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Prof CQ</t>
+          <t>Prof P</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F205" t="inlineStr"/>
       <c r="G205" t="inlineStr"/>
@@ -5576,23 +5576,23 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Sec AO</t>
+          <t>Sec AD</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>XXCU</t>
+          <t>XXJE</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Prof CO</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr"/>
-      <c r="F206" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof EK</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>3</v>
+      </c>
+      <c r="F206" t="inlineStr"/>
       <c r="G206" t="inlineStr"/>
     </row>
     <row r="207">
@@ -5601,21 +5601,21 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Sec AP</t>
+          <t>Sec AD</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>XXY</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Prof BH</t>
+          <t>Prof EB</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="inlineStr"/>
@@ -5626,21 +5626,21 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Sec AP</t>
+          <t>Sec AD</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>XXEW</t>
+          <t>XXMG</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Prof I</t>
+          <t>Prof L</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F208" t="inlineStr"/>
       <c r="G208" t="inlineStr"/>
@@ -5651,17 +5651,17 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Sec AP</t>
+          <t>Sec AD</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>XXCD</t>
+          <t>XXMZ</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Prof CN</t>
+          <t>Prof EE</t>
         </is>
       </c>
       <c r="E209" t="n">
@@ -5676,23 +5676,23 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Sec AP</t>
+          <t>Sec AD</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>XXFO</t>
+          <t>XXDY</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Prof CR</t>
-        </is>
-      </c>
-      <c r="E210" t="n">
-        <v>3</v>
-      </c>
-      <c r="F210" t="inlineStr"/>
+          <t>Prof C, Prof P, Prof U, Prof CW</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="n">
+        <v>2</v>
+      </c>
       <c r="G210" t="inlineStr"/>
     </row>
     <row r="211">
@@ -5701,17 +5701,17 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Sec AP</t>
+          <t>Sec AD</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>XXEO</t>
+          <t>XXPF</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Prof BB</t>
+          <t>Prof EP, Prof BT, Prof CY, Prof DG</t>
         </is>
       </c>
       <c r="E211" t="inlineStr"/>
@@ -5726,21 +5726,21 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Sec AQ</t>
+          <t>Sec AE</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>XXGQ</t>
+          <t>XXCF</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Prof BP</t>
+          <t>Prof BE</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="inlineStr"/>
@@ -5751,21 +5751,21 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Sec AQ</t>
+          <t>Sec AE</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>XXGU</t>
+          <t>XXLU</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Prof AM</t>
+          <t>Prof EE</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="inlineStr"/>
@@ -5776,21 +5776,21 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Sec AQ</t>
+          <t>Sec AE</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>XXFV</t>
+          <t>XXNN</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Prof BT</t>
+          <t>Prof B</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="inlineStr"/>
@@ -5801,17 +5801,17 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Sec AQ</t>
+          <t>Sec AE</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>XXDR</t>
+          <t>XXJW</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Prof AQ</t>
+          <t>Prof DK</t>
         </is>
       </c>
       <c r="E215" t="n">
@@ -5826,23 +5826,23 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Sec AQ</t>
+          <t>Sec AE</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>XXAY</t>
+          <t>XXQE</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Prof I</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof P</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>4</v>
+      </c>
+      <c r="F216" t="inlineStr"/>
       <c r="G216" t="inlineStr"/>
     </row>
     <row r="217">
@@ -5851,23 +5851,23 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Sec AR</t>
+          <t>Sec AE</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>XXIO</t>
+          <t>XXQL</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Prof BB</t>
-        </is>
-      </c>
-      <c r="E217" t="n">
-        <v>4</v>
-      </c>
-      <c r="F217" t="inlineStr"/>
+          <t>Prof AB, Prof CB, Prof BB, Prof CH</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="n">
+        <v>2</v>
+      </c>
       <c r="G217" t="inlineStr"/>
     </row>
     <row r="218">
@@ -5876,23 +5876,23 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Sec AR</t>
+          <t>Sec AE</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>XXCO</t>
+          <t>XXHG</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Prof AP</t>
-        </is>
-      </c>
-      <c r="E218" t="n">
-        <v>2</v>
-      </c>
-      <c r="F218" t="inlineStr"/>
+          <t>Prof DR, Prof V, Prof AU, Prof AV</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="n">
+        <v>2</v>
+      </c>
       <c r="G218" t="inlineStr"/>
     </row>
     <row r="219">
@@ -5901,21 +5901,21 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Sec AR</t>
+          <t>Sec AF</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>XXCS</t>
+          <t>XXAJ</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Prof BB</t>
+          <t>Prof G</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F219" t="inlineStr"/>
       <c r="G219" t="inlineStr"/>
@@ -5926,21 +5926,21 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Sec AR</t>
+          <t>Sec AF</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>XXDB</t>
+          <t>XXFB</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Prof BQ</t>
+          <t>Prof DC</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
@@ -5951,23 +5951,23 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Sec AR</t>
+          <t>Sec AF</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>XXAH</t>
+          <t>XXOH</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Prof W</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof CX</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>4</v>
+      </c>
+      <c r="F221" t="inlineStr"/>
       <c r="G221" t="inlineStr"/>
     </row>
     <row r="222">
@@ -5976,21 +5976,21 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Sec AS</t>
+          <t>Sec AF</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>XXBN</t>
+          <t>XXRC</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Prof BS</t>
+          <t>Prof AR</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F222" t="inlineStr"/>
       <c r="G222" t="inlineStr"/>
@@ -6001,21 +6001,21 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Sec AS</t>
+          <t>Sec AF</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>XXHJ</t>
+          <t>XXBK</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Prof A</t>
+          <t>Prof BY</t>
         </is>
       </c>
       <c r="E223" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F223" t="inlineStr"/>
       <c r="G223" t="inlineStr"/>
@@ -6026,23 +6026,23 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Sec AS</t>
+          <t>Sec AF</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>XXEU</t>
+          <t>XXDM</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Prof C</t>
-        </is>
-      </c>
-      <c r="E224" t="n">
-        <v>3</v>
-      </c>
-      <c r="F224" t="inlineStr"/>
+          <t>Prof AD, Prof H, Prof C, Prof DH</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="n">
+        <v>2</v>
+      </c>
       <c r="G224" t="inlineStr"/>
     </row>
     <row r="225">
@@ -6051,23 +6051,23 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Sec AS</t>
+          <t>Sec AF</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>XXBK</t>
+          <t>XXFU</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Prof BF</t>
-        </is>
-      </c>
-      <c r="E225" t="n">
-        <v>4</v>
-      </c>
-      <c r="F225" t="inlineStr"/>
+          <t>Prof AA, Prof EQ, Prof ET, Prof DY</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" t="n">
+        <v>2</v>
+      </c>
       <c r="G225" t="inlineStr"/>
     </row>
     <row r="226">
@@ -6076,23 +6076,23 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Sec AS</t>
+          <t>Sec AG</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>XXAP</t>
+          <t>XXON</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Prof E</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof AK</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
+        <v>3</v>
+      </c>
+      <c r="F226" t="inlineStr"/>
       <c r="G226" t="inlineStr"/>
     </row>
     <row r="227">
@@ -6101,21 +6101,21 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Sec AT</t>
+          <t>Sec AG</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>XXCM</t>
+          <t>XXEX</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Prof L</t>
+          <t>Prof CC</t>
         </is>
       </c>
       <c r="E227" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
@@ -6126,17 +6126,17 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Sec AT</t>
+          <t>Sec AG</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>XXDI</t>
+          <t>XXHS</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Prof AQ</t>
+          <t>Prof DN</t>
         </is>
       </c>
       <c r="E228" t="n">
@@ -6151,17 +6151,17 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Sec AT</t>
+          <t>Sec AG</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>XXM</t>
+          <t>XXIM</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Prof BV</t>
+          <t>Prof BQ</t>
         </is>
       </c>
       <c r="E229" t="n">
@@ -6176,21 +6176,21 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Sec AT</t>
+          <t>Sec AG</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>XXJC</t>
+          <t>XXQR</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Prof BP</t>
+          <t>Prof D</t>
         </is>
       </c>
       <c r="E230" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="inlineStr"/>
@@ -6201,17 +6201,17 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Sec AT</t>
+          <t>Sec AG</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>XXCP</t>
+          <t>XXLH</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Prof O</t>
+          <t>Prof CM, Prof AH, Prof BO, Prof DB</t>
         </is>
       </c>
       <c r="E231" t="inlineStr"/>
@@ -6226,23 +6226,23 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Sec AU</t>
+          <t>Sec AG</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>XXGK</t>
+          <t>XXAC</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Prof CB</t>
-        </is>
-      </c>
-      <c r="E232" t="n">
-        <v>2</v>
-      </c>
-      <c r="F232" t="inlineStr"/>
+          <t>Prof AW, Prof EA, Prof AR, Prof CL</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr"/>
+      <c r="F232" t="n">
+        <v>2</v>
+      </c>
       <c r="G232" t="inlineStr"/>
     </row>
     <row r="233">
@@ -6251,21 +6251,21 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Sec AU</t>
+          <t>Sec AH</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>XXEZ</t>
+          <t>XXI</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Prof BL</t>
+          <t>Prof AM</t>
         </is>
       </c>
       <c r="E233" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F233" t="inlineStr"/>
       <c r="G233" t="inlineStr"/>
@@ -6276,21 +6276,21 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Sec AU</t>
+          <t>Sec AH</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>XXEY</t>
+          <t>XXAG</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Prof D</t>
+          <t>Prof AD</t>
         </is>
       </c>
       <c r="E234" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F234" t="inlineStr"/>
       <c r="G234" t="inlineStr"/>
@@ -6301,21 +6301,21 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Sec AU</t>
+          <t>Sec AH</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>XXBI</t>
+          <t>XXFM</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Prof C</t>
+          <t>Prof AR</t>
         </is>
       </c>
       <c r="E235" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F235" t="inlineStr"/>
       <c r="G235" t="inlineStr"/>
@@ -6326,23 +6326,23 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Sec AU</t>
+          <t>Sec AH</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>XXIH</t>
+          <t>XXFC</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Prof Y</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr"/>
-      <c r="F236" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof EI</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
+        <v>3</v>
+      </c>
+      <c r="F236" t="inlineStr"/>
       <c r="G236" t="inlineStr"/>
     </row>
     <row r="237">
@@ -6351,21 +6351,21 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Sec AV</t>
+          <t>Sec AH</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>XXAS</t>
+          <t>XXPX</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Prof K</t>
+          <t>Prof DG</t>
         </is>
       </c>
       <c r="E237" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F237" t="inlineStr"/>
       <c r="G237" t="inlineStr"/>
@@ -6376,23 +6376,23 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Sec AV</t>
+          <t>Sec AH</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>XXGN</t>
+          <t>XXBL</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Prof M</t>
-        </is>
-      </c>
-      <c r="E238" t="n">
-        <v>2</v>
-      </c>
-      <c r="F238" t="inlineStr"/>
+          <t>Prof AD, Prof DB, Prof DJ, Prof EQ</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr"/>
+      <c r="F238" t="n">
+        <v>2</v>
+      </c>
       <c r="G238" t="inlineStr"/>
     </row>
     <row r="239">
@@ -6401,23 +6401,23 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Sec AV</t>
+          <t>Sec AH</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>XXHQ</t>
+          <t>XXBW</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Prof AK</t>
-        </is>
-      </c>
-      <c r="E239" t="n">
-        <v>4</v>
-      </c>
-      <c r="F239" t="inlineStr"/>
+          <t>Prof N, Prof EK, Prof ER, Prof EC</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr"/>
+      <c r="F239" t="n">
+        <v>2</v>
+      </c>
       <c r="G239" t="inlineStr"/>
     </row>
     <row r="240">
@@ -6426,21 +6426,21 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Sec AV</t>
+          <t>Sec AI</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>XXJN</t>
+          <t>XXIG</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Prof AF</t>
+          <t>Prof AP</t>
         </is>
       </c>
       <c r="E240" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F240" t="inlineStr"/>
       <c r="G240" t="inlineStr"/>
@@ -6451,23 +6451,23 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Sec AV</t>
+          <t>Sec AI</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>XXDY</t>
+          <t>XXML</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Prof W</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr"/>
-      <c r="F241" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof EN</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>3</v>
+      </c>
+      <c r="F241" t="inlineStr"/>
       <c r="G241" t="inlineStr"/>
     </row>
     <row r="242">
@@ -6476,21 +6476,21 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Sec AW</t>
+          <t>Sec AI</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>XXJF</t>
+          <t>XXRS</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Prof AZ</t>
+          <t>Prof CU</t>
         </is>
       </c>
       <c r="E242" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F242" t="inlineStr"/>
       <c r="G242" t="inlineStr"/>
@@ -6501,21 +6501,21 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Sec AW</t>
+          <t>Sec AI</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>XXEG</t>
+          <t>XXBD</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Prof BM</t>
+          <t>Prof CJ</t>
         </is>
       </c>
       <c r="E243" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F243" t="inlineStr"/>
       <c r="G243" t="inlineStr"/>
@@ -6526,21 +6526,21 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Sec AW</t>
+          <t>Sec AI</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>XXDW</t>
+          <t>XXHA</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Prof E</t>
+          <t>Prof AE</t>
         </is>
       </c>
       <c r="E244" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F244" t="inlineStr"/>
       <c r="G244" t="inlineStr"/>
@@ -6551,23 +6551,23 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Sec AW</t>
+          <t>Sec AI</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>XXBD</t>
+          <t>XXEF</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Prof AG</t>
-        </is>
-      </c>
-      <c r="E245" t="n">
-        <v>3</v>
-      </c>
-      <c r="F245" t="inlineStr"/>
+          <t>Prof V, Prof B, Prof F, Prof CB</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr"/>
+      <c r="F245" t="n">
+        <v>2</v>
+      </c>
       <c r="G245" t="inlineStr"/>
     </row>
     <row r="246">
@@ -6576,17 +6576,17 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Sec AW</t>
+          <t>Sec AI</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>XXBO</t>
+          <t>XXGT</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Prof R</t>
+          <t>Prof AI, Prof BM, Prof EL, Prof CE</t>
         </is>
       </c>
       <c r="E246" t="inlineStr"/>
@@ -6601,21 +6601,21 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Sec AX</t>
+          <t>Sec AJ</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>XXBE</t>
+          <t>XXBB</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Prof BQ</t>
+          <t>Prof CQ</t>
         </is>
       </c>
       <c r="E247" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F247" t="inlineStr"/>
       <c r="G247" t="inlineStr"/>
@@ -6626,21 +6626,21 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Sec AX</t>
+          <t>Sec AJ</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>XXGB</t>
+          <t>XXME</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Prof G</t>
+          <t>Prof DV</t>
         </is>
       </c>
       <c r="E248" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F248" t="inlineStr"/>
       <c r="G248" t="inlineStr"/>
@@ -6651,21 +6651,21 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Sec AX</t>
+          <t>Sec AJ</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>XXAZ</t>
+          <t>XXMU</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Prof CA</t>
+          <t>Prof AN</t>
         </is>
       </c>
       <c r="E249" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F249" t="inlineStr"/>
       <c r="G249" t="inlineStr"/>
@@ -6676,21 +6676,21 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Sec AX</t>
+          <t>Sec AJ</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>XXIZ</t>
+          <t>XXNY</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Prof AB</t>
+          <t>Prof AI</t>
         </is>
       </c>
       <c r="E250" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F250" t="inlineStr"/>
       <c r="G250" t="inlineStr"/>
@@ -6701,23 +6701,23 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Sec AX</t>
+          <t>Sec AJ</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>XXET</t>
+          <t>XXMQ</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Prof AT</t>
-        </is>
-      </c>
-      <c r="E251" t="inlineStr"/>
-      <c r="F251" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof D</t>
+        </is>
+      </c>
+      <c r="E251" t="n">
+        <v>3</v>
+      </c>
+      <c r="F251" t="inlineStr"/>
       <c r="G251" t="inlineStr"/>
     </row>
     <row r="252">
@@ -6726,23 +6726,23 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Sec A, Sec B, Sec C</t>
+          <t>Sec AJ</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>XXCE</t>
+          <t>XXCZ</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Prof AT</t>
-        </is>
-      </c>
-      <c r="E252" t="n">
-        <v>3</v>
-      </c>
-      <c r="F252" t="inlineStr"/>
+          <t>Prof BT, Prof BF, Prof AM, Prof CY</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr"/>
+      <c r="F252" t="n">
+        <v>2</v>
+      </c>
       <c r="G252" t="inlineStr"/>
     </row>
     <row r="253">
@@ -6751,23 +6751,23 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Sec D, Sec E, Sec F</t>
+          <t>Sec AJ</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>XXEN</t>
+          <t>XXKW</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Prof CS</t>
-        </is>
-      </c>
-      <c r="E253" t="n">
-        <v>4</v>
-      </c>
-      <c r="F253" t="inlineStr"/>
+          <t>Prof BP, Prof CD, Prof C, Prof CJ</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr"/>
+      <c r="F253" t="n">
+        <v>2</v>
+      </c>
       <c r="G253" t="inlineStr"/>
     </row>
     <row r="254">
@@ -6776,21 +6776,21 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Sec G, Sec H, Sec I</t>
+          <t>Sec AK</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>XXFP</t>
+          <t>XXPT</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Prof BM</t>
+          <t>Prof EA</t>
         </is>
       </c>
       <c r="E254" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F254" t="inlineStr"/>
       <c r="G254" t="inlineStr"/>
@@ -6801,17 +6801,17 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Sec J, Sec K, Sec L</t>
+          <t>Sec AK</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>XXHM</t>
+          <t>XXN</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Prof N</t>
+          <t>Prof EN</t>
         </is>
       </c>
       <c r="E255" t="n">
@@ -6826,17 +6826,17 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Sec M, Sec N, Sec O</t>
+          <t>Sec AK</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>XXGP</t>
+          <t>XXIZ</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Prof CS</t>
+          <t>Prof DU</t>
         </is>
       </c>
       <c r="E256" t="n">
@@ -6851,21 +6851,21 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Sec P, Sec Q, Sec R</t>
+          <t>Sec AK</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>XXJL</t>
+          <t>XXIX</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Prof V</t>
+          <t>Prof CW</t>
         </is>
       </c>
       <c r="E257" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F257" t="inlineStr"/>
       <c r="G257" t="inlineStr"/>
@@ -6876,21 +6876,21 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Sec S, Sec T, Sec U</t>
+          <t>Sec AK</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>XXAW</t>
+          <t>XXIR</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Prof V</t>
+          <t>Prof DC</t>
         </is>
       </c>
       <c r="E258" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F258" t="inlineStr"/>
       <c r="G258" t="inlineStr"/>
@@ -6901,23 +6901,23 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Sec V, Sec W, Sec X</t>
+          <t>Sec AK</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>XXIL</t>
+          <t>XXFZ</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Prof CG</t>
-        </is>
-      </c>
-      <c r="E259" t="n">
-        <v>2</v>
-      </c>
-      <c r="F259" t="inlineStr"/>
+          <t>Prof N, Prof AU, Prof BD, Prof Z</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr"/>
+      <c r="F259" t="n">
+        <v>2</v>
+      </c>
       <c r="G259" t="inlineStr"/>
     </row>
     <row r="260">
@@ -6926,23 +6926,23 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Sec Y, Sec Z, Sec AA</t>
+          <t>Sec AK</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>XXFB</t>
+          <t>XXQZ</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Prof CH</t>
-        </is>
-      </c>
-      <c r="E260" t="n">
-        <v>4</v>
-      </c>
-      <c r="F260" t="inlineStr"/>
+          <t>Prof AX, Prof CY, Prof U, Prof BM</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr"/>
+      <c r="F260" t="n">
+        <v>2</v>
+      </c>
       <c r="G260" t="inlineStr"/>
     </row>
     <row r="261">
@@ -6951,17 +6951,17 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Sec AB, Sec AC, Sec AD</t>
+          <t>Sec AL</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>XXDN</t>
+          <t>XXCC</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Prof BX</t>
+          <t>Prof CP</t>
         </is>
       </c>
       <c r="E261" t="n">
@@ -6976,21 +6976,21 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Sec AE, Sec AF, Sec AG</t>
+          <t>Sec AL</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>XXCQ</t>
+          <t>XXLK</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Prof BA</t>
+          <t>Prof CP</t>
         </is>
       </c>
       <c r="E262" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F262" t="inlineStr"/>
       <c r="G262" t="inlineStr"/>
@@ -7001,21 +7001,21 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Sec AH, Sec AI, Sec AJ</t>
+          <t>Sec AL</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>XXCY</t>
+          <t>XXU</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Prof CG</t>
+          <t>Prof CW</t>
         </is>
       </c>
       <c r="E263" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F263" t="inlineStr"/>
       <c r="G263" t="inlineStr"/>
@@ -7026,21 +7026,21 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Sec AK, Sec AL, Sec AM</t>
+          <t>Sec AL</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>XXDU</t>
+          <t>XXCG</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Prof CF</t>
+          <t>Prof CA</t>
         </is>
       </c>
       <c r="E264" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F264" t="inlineStr"/>
       <c r="G264" t="inlineStr"/>
@@ -7051,21 +7051,21 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Sec AN, Sec AO, Sec AP</t>
+          <t>Sec AL</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>XXCF</t>
+          <t>XXPP</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Prof C</t>
+          <t>Prof U</t>
         </is>
       </c>
       <c r="E265" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F265" t="inlineStr"/>
       <c r="G265" t="inlineStr"/>
@@ -7076,23 +7076,23 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Sec AQ, Sec AR, Sec AS</t>
+          <t>Sec AL</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>XXT</t>
+          <t>XXDL</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Prof CC</t>
-        </is>
-      </c>
-      <c r="E266" t="n">
-        <v>2</v>
-      </c>
-      <c r="F266" t="inlineStr"/>
+          <t>Prof DU, Prof CW, Prof BB, Prof DC</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr"/>
+      <c r="F266" t="n">
+        <v>2</v>
+      </c>
       <c r="G266" t="inlineStr"/>
     </row>
     <row r="267">
@@ -7101,23 +7101,23 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Sec AT, Sec AU, Sec AV</t>
+          <t>Sec AL</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>XXBQ</t>
+          <t>XXHB</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Prof CD</t>
-        </is>
-      </c>
-      <c r="E267" t="n">
-        <v>4</v>
-      </c>
-      <c r="F267" t="inlineStr"/>
+          <t>Prof CU, Prof AL, Prof ER, Prof DQ</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr"/>
+      <c r="F267" t="n">
+        <v>2</v>
+      </c>
       <c r="G267" t="inlineStr"/>
     </row>
     <row r="268">
@@ -7126,22 +7126,24 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Sec O, Sec AQ, Sec F, Sec K, Sec AS, Sec AG, Sec P, Sec AO, Sec T, Sec C</t>
+          <t>Sec AM</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>BLOCKED_267</t>
-        </is>
-      </c>
-      <c r="D268" t="inlineStr"/>
-      <c r="E268" t="inlineStr"/>
+          <t>XXPQ</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Prof X</t>
+        </is>
+      </c>
+      <c r="E268" t="n">
+        <v>4</v>
+      </c>
       <c r="F268" t="inlineStr"/>
-      <c r="G268" t="inlineStr">
-        <is>
-          <t>(3, 2), (4, 8), (5, 1), (5, 7)</t>
-        </is>
-      </c>
+      <c r="G268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -7149,22 +7151,24 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Sec AW, Sec AK, Sec Z, Sec AR, Sec L, Sec D, Sec AV, Sec Y, Sec AJ, Sec AB</t>
+          <t>Sec AM</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>BLOCKED_268</t>
-        </is>
-      </c>
-      <c r="D269" t="inlineStr"/>
-      <c r="E269" t="inlineStr"/>
+          <t>XXEQ</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Prof BY</t>
+        </is>
+      </c>
+      <c r="E269" t="n">
+        <v>4</v>
+      </c>
       <c r="F269" t="inlineStr"/>
-      <c r="G269" t="inlineStr">
-        <is>
-          <t>(1, 1), (2, 2), (3, 7), (4, 7)</t>
-        </is>
-      </c>
+      <c r="G269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -7172,22 +7176,24 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Sec S, Sec AJ, Sec T, Sec G, Sec D, Sec J, Sec AO, Sec AE, Sec I, Sec V</t>
+          <t>Sec AM</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>BLOCKED_269</t>
-        </is>
-      </c>
-      <c r="D270" t="inlineStr"/>
-      <c r="E270" t="inlineStr"/>
+          <t>XXFR</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Prof F</t>
+        </is>
+      </c>
+      <c r="E270" t="n">
+        <v>4</v>
+      </c>
       <c r="F270" t="inlineStr"/>
-      <c r="G270" t="inlineStr">
-        <is>
-          <t>(1, 2), (2, 1), (2, 7), (4, 2)</t>
-        </is>
-      </c>
+      <c r="G270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -7195,22 +7201,24 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Sec AW, Sec M, Sec K, Sec V, Sec AO, Sec AS, Sec AD, Sec AM, Sec AF, Sec Y</t>
+          <t>Sec AM</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>BLOCKED_270</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr"/>
-      <c r="E271" t="inlineStr"/>
+          <t>XXCT</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Prof CZ</t>
+        </is>
+      </c>
+      <c r="E271" t="n">
+        <v>4</v>
+      </c>
       <c r="F271" t="inlineStr"/>
-      <c r="G271" t="inlineStr">
-        <is>
-          <t>(1, 8), (3, 1), (5, 2), (5, 8)</t>
-        </is>
-      </c>
+      <c r="G271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -7218,20 +7226,2339 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Sec X, Sec H, Sec E, Sec J, Sec AA, Sec L, Sec AS, Sec N, Sec AQ, Sec AW</t>
+          <t>Sec AM</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>BLOCKED_271</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr"/>
-      <c r="E272" t="inlineStr"/>
+          <t>XXCA</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Prof AD</t>
+        </is>
+      </c>
+      <c r="E272" t="n">
+        <v>4</v>
+      </c>
       <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr">
-        <is>
-          <t>(1, 7), (2, 8), (3, 8), (4, 1)</t>
+      <c r="G272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>272</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Sec AM</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>XXAP</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Prof AE, Prof CA, Prof ER, Prof DI</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr"/>
+      <c r="F273" t="n">
+        <v>2</v>
+      </c>
+      <c r="G273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>273</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Sec AM</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>XXRO</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Prof DR, Prof CC, Prof BW, Prof AP</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr"/>
+      <c r="F274" t="n">
+        <v>2</v>
+      </c>
+      <c r="G274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>274</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Sec AN</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>XXB</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Prof AO</t>
+        </is>
+      </c>
+      <c r="E275" t="n">
+        <v>4</v>
+      </c>
+      <c r="F275" t="inlineStr"/>
+      <c r="G275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>275</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Sec AN</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>XXR</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Prof BL</t>
+        </is>
+      </c>
+      <c r="E276" t="n">
+        <v>3</v>
+      </c>
+      <c r="F276" t="inlineStr"/>
+      <c r="G276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>276</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Sec AN</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>XXSA</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Prof BM</t>
+        </is>
+      </c>
+      <c r="E277" t="n">
+        <v>3</v>
+      </c>
+      <c r="F277" t="inlineStr"/>
+      <c r="G277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>277</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Sec AN</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>XXFN</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Prof BR</t>
+        </is>
+      </c>
+      <c r="E278" t="n">
+        <v>4</v>
+      </c>
+      <c r="F278" t="inlineStr"/>
+      <c r="G278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>278</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Sec AN</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>XXLC</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Prof BR</t>
+        </is>
+      </c>
+      <c r="E279" t="n">
+        <v>3</v>
+      </c>
+      <c r="F279" t="inlineStr"/>
+      <c r="G279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>279</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Sec AN</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>XXV</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Prof CY, Prof N, Prof C, Prof BL</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr"/>
+      <c r="F280" t="n">
+        <v>2</v>
+      </c>
+      <c r="G280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>280</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Sec AN</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>XXLE</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Prof DK, Prof AQ, Prof DO, Prof BN</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr"/>
+      <c r="F281" t="n">
+        <v>2</v>
+      </c>
+      <c r="G281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>281</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Sec AO</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>XXHP</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Prof AC</t>
+        </is>
+      </c>
+      <c r="E282" t="n">
+        <v>3</v>
+      </c>
+      <c r="F282" t="inlineStr"/>
+      <c r="G282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>282</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Sec AO</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>XXAB</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Prof EG</t>
+        </is>
+      </c>
+      <c r="E283" t="n">
+        <v>4</v>
+      </c>
+      <c r="F283" t="inlineStr"/>
+      <c r="G283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>283</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Sec AO</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>XXOR</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Prof CI</t>
+        </is>
+      </c>
+      <c r="E284" t="n">
+        <v>4</v>
+      </c>
+      <c r="F284" t="inlineStr"/>
+      <c r="G284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>284</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Sec AO</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>XXKN</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Prof BO</t>
+        </is>
+      </c>
+      <c r="E285" t="n">
+        <v>3</v>
+      </c>
+      <c r="F285" t="inlineStr"/>
+      <c r="G285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>285</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Sec AO</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>XXMC</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Prof CQ</t>
+        </is>
+      </c>
+      <c r="E286" t="n">
+        <v>4</v>
+      </c>
+      <c r="F286" t="inlineStr"/>
+      <c r="G286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>286</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Sec AO</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>XXJO</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Prof AQ, Prof BN, Prof BQ, Prof DH</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr"/>
+      <c r="F287" t="n">
+        <v>2</v>
+      </c>
+      <c r="G287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>287</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Sec AO</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>XXNW</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Prof BQ, Prof BF, Prof D, Prof S</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr"/>
+      <c r="F288" t="n">
+        <v>2</v>
+      </c>
+      <c r="G288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>288</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Sec AP</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>XXMD</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Prof K</t>
+        </is>
+      </c>
+      <c r="E289" t="n">
+        <v>3</v>
+      </c>
+      <c r="F289" t="inlineStr"/>
+      <c r="G289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>289</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Sec AP</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>XXFD</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Prof DQ</t>
+        </is>
+      </c>
+      <c r="E290" t="n">
+        <v>4</v>
+      </c>
+      <c r="F290" t="inlineStr"/>
+      <c r="G290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>290</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Sec AP</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>XXAA</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Prof DR</t>
+        </is>
+      </c>
+      <c r="E291" t="n">
+        <v>4</v>
+      </c>
+      <c r="F291" t="inlineStr"/>
+      <c r="G291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>291</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Sec AP</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>XXS</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Prof BC</t>
+        </is>
+      </c>
+      <c r="E292" t="n">
+        <v>4</v>
+      </c>
+      <c r="F292" t="inlineStr"/>
+      <c r="G292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>292</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Sec AP</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>XXPR</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Prof EN</t>
+        </is>
+      </c>
+      <c r="E293" t="n">
+        <v>4</v>
+      </c>
+      <c r="F293" t="inlineStr"/>
+      <c r="G293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>293</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Sec AP</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>XXGW</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Prof DT, Prof G, Prof BP, Prof DI</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr"/>
+      <c r="F294" t="n">
+        <v>2</v>
+      </c>
+      <c r="G294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>294</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Sec AP</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>XXAM</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Prof DB, Prof DK, Prof BX, Prof DH</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr"/>
+      <c r="F295" t="n">
+        <v>2</v>
+      </c>
+      <c r="G295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>295</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Sec AQ</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>XXJF</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Prof AF</t>
+        </is>
+      </c>
+      <c r="E296" t="n">
+        <v>3</v>
+      </c>
+      <c r="F296" t="inlineStr"/>
+      <c r="G296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>296</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Sec AQ</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>XXE</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Prof AZ</t>
+        </is>
+      </c>
+      <c r="E297" t="n">
+        <v>3</v>
+      </c>
+      <c r="F297" t="inlineStr"/>
+      <c r="G297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>297</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Sec AQ</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>XXIJ</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Prof CN</t>
+        </is>
+      </c>
+      <c r="E298" t="n">
+        <v>3</v>
+      </c>
+      <c r="F298" t="inlineStr"/>
+      <c r="G298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>298</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Sec AQ</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>XXHK</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Prof DL</t>
+        </is>
+      </c>
+      <c r="E299" t="n">
+        <v>3</v>
+      </c>
+      <c r="F299" t="inlineStr"/>
+      <c r="G299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>299</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Sec AQ</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>XXQX</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>Prof I</t>
+        </is>
+      </c>
+      <c r="E300" t="n">
+        <v>4</v>
+      </c>
+      <c r="F300" t="inlineStr"/>
+      <c r="G300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>300</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Sec AQ</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>XXPO</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>Prof F, Prof AV, Prof ET, Prof CA</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr"/>
+      <c r="F301" t="n">
+        <v>2</v>
+      </c>
+      <c r="G301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>301</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Sec AQ</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>XXKC</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>Prof AQ, Prof AU, Prof AA, Prof A</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr"/>
+      <c r="F302" t="n">
+        <v>2</v>
+      </c>
+      <c r="G302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>302</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Sec AR</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>XXGV</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>Prof F</t>
+        </is>
+      </c>
+      <c r="E303" t="n">
+        <v>3</v>
+      </c>
+      <c r="F303" t="inlineStr"/>
+      <c r="G303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>303</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Sec AR</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>XXGQ</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>Prof BV</t>
+        </is>
+      </c>
+      <c r="E304" t="n">
+        <v>3</v>
+      </c>
+      <c r="F304" t="inlineStr"/>
+      <c r="G304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>304</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Sec AR</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>XXPB</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>Prof CP</t>
+        </is>
+      </c>
+      <c r="E305" t="n">
+        <v>3</v>
+      </c>
+      <c r="F305" t="inlineStr"/>
+      <c r="G305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>305</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Sec AR</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>XXJJ</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>Prof DC</t>
+        </is>
+      </c>
+      <c r="E306" t="n">
+        <v>3</v>
+      </c>
+      <c r="F306" t="inlineStr"/>
+      <c r="G306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>306</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Sec AR</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>XXGZ</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>Prof CV</t>
+        </is>
+      </c>
+      <c r="E307" t="n">
+        <v>4</v>
+      </c>
+      <c r="F307" t="inlineStr"/>
+      <c r="G307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>307</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Sec AR</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>XXGO</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>Prof AC, Prof AK, Prof AG, Prof DW</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr"/>
+      <c r="F308" t="n">
+        <v>2</v>
+      </c>
+      <c r="G308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>308</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Sec AR</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>XXOY</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>Prof DP, Prof BX, Prof CO, Prof S</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr"/>
+      <c r="F309" t="n">
+        <v>2</v>
+      </c>
+      <c r="G309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>309</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Sec AS</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>XXOO</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>Prof CM</t>
+        </is>
+      </c>
+      <c r="E310" t="n">
+        <v>3</v>
+      </c>
+      <c r="F310" t="inlineStr"/>
+      <c r="G310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>310</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Sec AS</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>XXBQ</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>Prof DU</t>
+        </is>
+      </c>
+      <c r="E311" t="n">
+        <v>3</v>
+      </c>
+      <c r="F311" t="inlineStr"/>
+      <c r="G311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>311</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Sec AS</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>XXSF</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>Prof CV</t>
+        </is>
+      </c>
+      <c r="E312" t="n">
+        <v>4</v>
+      </c>
+      <c r="F312" t="inlineStr"/>
+      <c r="G312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>312</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Sec AS</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>XXNP</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>Prof CY</t>
+        </is>
+      </c>
+      <c r="E313" t="n">
+        <v>3</v>
+      </c>
+      <c r="F313" t="inlineStr"/>
+      <c r="G313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>313</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Sec AS</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>XXRG</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>Prof EG</t>
+        </is>
+      </c>
+      <c r="E314" t="n">
+        <v>4</v>
+      </c>
+      <c r="F314" t="inlineStr"/>
+      <c r="G314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>314</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Sec AS</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>XXHO</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>Prof H, Prof AT, Prof DX, Prof O</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr"/>
+      <c r="F315" t="n">
+        <v>2</v>
+      </c>
+      <c r="G315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>315</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Sec AS</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>XXFG</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>Prof BW, Prof DY, Prof AU, Prof R</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr"/>
+      <c r="F316" t="n">
+        <v>2</v>
+      </c>
+      <c r="G316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>316</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Sec AT</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>XXPW</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>Prof BF</t>
+        </is>
+      </c>
+      <c r="E317" t="n">
+        <v>3</v>
+      </c>
+      <c r="F317" t="inlineStr"/>
+      <c r="G317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>317</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Sec AT</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>XXIT</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>Prof CQ</t>
+        </is>
+      </c>
+      <c r="E318" t="n">
+        <v>3</v>
+      </c>
+      <c r="F318" t="inlineStr"/>
+      <c r="G318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>318</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Sec AT</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>XXLD</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>Prof CU</t>
+        </is>
+      </c>
+      <c r="E319" t="n">
+        <v>3</v>
+      </c>
+      <c r="F319" t="inlineStr"/>
+      <c r="G319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>319</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Sec AT</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>XXQF</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>Prof BZ</t>
+        </is>
+      </c>
+      <c r="E320" t="n">
+        <v>3</v>
+      </c>
+      <c r="F320" t="inlineStr"/>
+      <c r="G320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>320</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Sec AT</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>XXII</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Prof BE</t>
+        </is>
+      </c>
+      <c r="E321" t="n">
+        <v>3</v>
+      </c>
+      <c r="F321" t="inlineStr"/>
+      <c r="G321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>321</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Sec AT</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>XXGJ</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Prof DO, Prof G, Prof AG, Prof DB</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr"/>
+      <c r="F322" t="n">
+        <v>2</v>
+      </c>
+      <c r="G322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>322</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Sec AT</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>XXK</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>Prof EF, Prof AU, Prof A, Prof G</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr"/>
+      <c r="F323" t="n">
+        <v>2</v>
+      </c>
+      <c r="G323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>323</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Sec AU</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>XXLF</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>Prof AS</t>
+        </is>
+      </c>
+      <c r="E324" t="n">
+        <v>4</v>
+      </c>
+      <c r="F324" t="inlineStr"/>
+      <c r="G324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>324</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Sec AU</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>XXL</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>Prof S</t>
+        </is>
+      </c>
+      <c r="E325" t="n">
+        <v>3</v>
+      </c>
+      <c r="F325" t="inlineStr"/>
+      <c r="G325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>325</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Sec AU</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>XXED</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>Prof BZ</t>
+        </is>
+      </c>
+      <c r="E326" t="n">
+        <v>3</v>
+      </c>
+      <c r="F326" t="inlineStr"/>
+      <c r="G326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>326</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Sec AU</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>XXKE</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>Prof BW</t>
+        </is>
+      </c>
+      <c r="E327" t="n">
+        <v>3</v>
+      </c>
+      <c r="F327" t="inlineStr"/>
+      <c r="G327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>327</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Sec AU</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>XXDK</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>Prof CG</t>
+        </is>
+      </c>
+      <c r="E328" t="n">
+        <v>4</v>
+      </c>
+      <c r="F328" t="inlineStr"/>
+      <c r="G328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>328</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Sec AU</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>XXFL</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>Prof ES, Prof AL, Prof EN, Prof DU</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr"/>
+      <c r="F329" t="n">
+        <v>2</v>
+      </c>
+      <c r="G329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>329</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Sec AU</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>XXHM</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>Prof AQ, Prof DE, Prof EO, Prof CL</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr"/>
+      <c r="F330" t="n">
+        <v>2</v>
+      </c>
+      <c r="G330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>330</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Sec AV</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>XXOU</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>Prof BH</t>
+        </is>
+      </c>
+      <c r="E331" t="n">
+        <v>3</v>
+      </c>
+      <c r="F331" t="inlineStr"/>
+      <c r="G331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>331</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Sec AV</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>XXFH</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>Prof DM</t>
+        </is>
+      </c>
+      <c r="E332" t="n">
+        <v>3</v>
+      </c>
+      <c r="F332" t="inlineStr"/>
+      <c r="G332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>332</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Sec AV</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>XXQK</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>Prof DP</t>
+        </is>
+      </c>
+      <c r="E333" t="n">
+        <v>3</v>
+      </c>
+      <c r="F333" t="inlineStr"/>
+      <c r="G333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>333</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Sec AV</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>XXAE</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>Prof O</t>
+        </is>
+      </c>
+      <c r="E334" t="n">
+        <v>4</v>
+      </c>
+      <c r="F334" t="inlineStr"/>
+      <c r="G334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>334</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Sec AV</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>XXSD</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>Prof DT</t>
+        </is>
+      </c>
+      <c r="E335" t="n">
+        <v>3</v>
+      </c>
+      <c r="F335" t="inlineStr"/>
+      <c r="G335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>335</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Sec AV</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>XXJH</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>Prof CH, Prof Z, Prof EQ, Prof BL</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr"/>
+      <c r="F336" t="n">
+        <v>2</v>
+      </c>
+      <c r="G336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>336</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Sec AV</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>XXRW</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>Prof Y, Prof DU, Prof EJ, Prof AJ</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr"/>
+      <c r="F337" t="n">
+        <v>2</v>
+      </c>
+      <c r="G337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>337</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Sec AW</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>XXPA</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>Prof CR</t>
+        </is>
+      </c>
+      <c r="E338" t="n">
+        <v>3</v>
+      </c>
+      <c r="F338" t="inlineStr"/>
+      <c r="G338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>338</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Sec AW</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>XXJD</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>Prof DW</t>
+        </is>
+      </c>
+      <c r="E339" t="n">
+        <v>3</v>
+      </c>
+      <c r="F339" t="inlineStr"/>
+      <c r="G339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>339</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Sec AW</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>XXQW</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>Prof EM</t>
+        </is>
+      </c>
+      <c r="E340" t="n">
+        <v>3</v>
+      </c>
+      <c r="F340" t="inlineStr"/>
+      <c r="G340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>340</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Sec AW</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>XXCJ</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>Prof J</t>
+        </is>
+      </c>
+      <c r="E341" t="n">
+        <v>4</v>
+      </c>
+      <c r="F341" t="inlineStr"/>
+      <c r="G341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>341</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Sec AW</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>XXJU</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>Prof BU</t>
+        </is>
+      </c>
+      <c r="E342" t="n">
+        <v>3</v>
+      </c>
+      <c r="F342" t="inlineStr"/>
+      <c r="G342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>342</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Sec AW</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>XXIN</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>Prof EB, Prof BE, Prof BS, Prof AN</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr"/>
+      <c r="F343" t="n">
+        <v>2</v>
+      </c>
+      <c r="G343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>343</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Sec AW</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>XXAL</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>Prof K, Prof EO, Prof DK, Prof DT</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr"/>
+      <c r="F344" t="n">
+        <v>2</v>
+      </c>
+      <c r="G344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>344</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Sec AX</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>XXCU</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>Prof CR</t>
+        </is>
+      </c>
+      <c r="E345" t="n">
+        <v>3</v>
+      </c>
+      <c r="F345" t="inlineStr"/>
+      <c r="G345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>345</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Sec AX</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>XXFF</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>Prof EC</t>
+        </is>
+      </c>
+      <c r="E346" t="n">
+        <v>3</v>
+      </c>
+      <c r="F346" t="inlineStr"/>
+      <c r="G346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>346</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Sec AX</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>XXBG</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>Prof Z</t>
+        </is>
+      </c>
+      <c r="E347" t="n">
+        <v>3</v>
+      </c>
+      <c r="F347" t="inlineStr"/>
+      <c r="G347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>347</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Sec AX</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>XXBF</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>Prof EN</t>
+        </is>
+      </c>
+      <c r="E348" t="n">
+        <v>4</v>
+      </c>
+      <c r="F348" t="inlineStr"/>
+      <c r="G348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>348</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Sec AX</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>XXOX</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>Prof DO</t>
+        </is>
+      </c>
+      <c r="E349" t="n">
+        <v>3</v>
+      </c>
+      <c r="F349" t="inlineStr"/>
+      <c r="G349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>349</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Sec AX</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>XXOT</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>Prof T, Prof Y, Prof CI, Prof CO</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr"/>
+      <c r="F350" t="n">
+        <v>2</v>
+      </c>
+      <c r="G350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>350</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Sec AX</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>XXDV</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>Prof AO, Prof BM, Prof BQ, Prof DM</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr"/>
+      <c r="F351" t="n">
+        <v>2</v>
+      </c>
+      <c r="G351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>351</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Sec AS, Sec P, Sec AT, Sec AR, Sec AI, Sec D, Sec E, Sec M</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>XXRL</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>Prof EB, Prof DL, Prof CX, Prof R, Prof AT, Prof CR, Prof CA, Prof AN</t>
+        </is>
+      </c>
+      <c r="E352" t="n">
+        <v>4</v>
+      </c>
+      <c r="F352" t="inlineStr"/>
+      <c r="G352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>352</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Sec AS, Sec P, Sec AT, Sec AR, Sec AI, Sec D, Sec E, Sec M</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>XXDC</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>Prof CI, Prof AL, Prof EJ, Prof EM, Prof BV, Prof R, Prof AC, Prof EB</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr"/>
+      <c r="F353" t="n">
+        <v>2</v>
+      </c>
+      <c r="G353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>353</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Sec AN, Sec AG, Sec G, Sec C, Sec I, Sec H</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>XXRE</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>Prof AO, Prof EM, Prof A, Prof AT, Prof AY, Prof EP</t>
+        </is>
+      </c>
+      <c r="E354" t="n">
+        <v>4</v>
+      </c>
+      <c r="F354" t="inlineStr"/>
+      <c r="G354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>354</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Sec AN, Sec AG, Sec G, Sec C, Sec I, Sec H</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>XXMP</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>Prof CT, Prof A, Prof CQ, Prof DO, Prof BZ, Prof CL</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr"/>
+      <c r="F355" t="n">
+        <v>2</v>
+      </c>
+      <c r="G355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>355</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Sec S, Sec AH, Sec Z, Sec AE, Sec F, Sec AF, Sec N</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>XXAN</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>Prof DL, Prof AE, Prof EQ, Prof DM, Prof AS, Prof EP, Prof T</t>
+        </is>
+      </c>
+      <c r="E356" t="n">
+        <v>4</v>
+      </c>
+      <c r="F356" t="inlineStr"/>
+      <c r="G356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>356</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Sec AX, Sec AV, Sec AO, Sec Y, Sec AL, Sec AW, Sec AJ, Sec W, Sec R</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>XXMF</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>Prof CD, Prof CV, Prof BI, Prof CS, Prof G, Prof CG, Prof BS, Prof J, Prof CT</t>
+        </is>
+      </c>
+      <c r="E357" t="n">
+        <v>3</v>
+      </c>
+      <c r="F357" t="inlineStr"/>
+      <c r="G357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>357</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Sec O, Sec AA, Sec AB, Sec AQ, Sec AK, Sec T, Sec K, Sec AC, Sec U, Sec AP, Sec L</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>XXIK</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>Prof EC, Prof ET, Prof ES, Prof CI, Prof BH, Prof CK, Prof BA, Prof AH, Prof DE, Prof CR, Prof BV</t>
+        </is>
+      </c>
+      <c r="E358" t="n">
+        <v>4</v>
+      </c>
+      <c r="F358" t="inlineStr"/>
+      <c r="G358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>358</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Sec O, Sec AA, Sec AB, Sec AQ, Sec AK, Sec T, Sec K, Sec AC, Sec U, Sec AP, Sec L</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>XXDI</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>Prof DL, Prof Y, Prof AN, Prof CH, Prof CK, Prof BI, Prof CZ, Prof AO, Prof AT, Prof AH, Prof BS</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr"/>
+      <c r="F359" t="n">
+        <v>2</v>
+      </c>
+      <c r="G359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>359</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Sec AM, Sec A, Sec J, Sec AU, Sec B, Sec Q</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>XXQM</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>Prof AK, Prof CO, Prof AS, Prof DR, Prof AT, Prof CZ</t>
+        </is>
+      </c>
+      <c r="E360" t="n">
+        <v>3</v>
+      </c>
+      <c r="F360" t="inlineStr"/>
+      <c r="G360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>360</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Sec V, Sec AD, Sec X</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>XXJP</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>Prof DQ, Prof BI, Prof DP</t>
+        </is>
+      </c>
+      <c r="E361" t="n">
+        <v>3</v>
+      </c>
+      <c r="F361" t="inlineStr"/>
+      <c r="G361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>361</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Sec R, Sec AK, Sec I, Sec AQ, Sec AW, Sec N, Sec L, Sec AH, Sec T, Sec AD, Sec AF</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>BLOCKED_361</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr"/>
+      <c r="E362" t="inlineStr"/>
+      <c r="F362" t="inlineStr"/>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>(4, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>362</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Sec AP, Sec X, Sec AU, Sec AF, Sec AC, Sec P, Sec H, Sec Z, Sec O, Sec W, Sec V</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>BLOCKED_362</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr"/>
+      <c r="E363" t="inlineStr"/>
+      <c r="F363" t="inlineStr"/>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>(2, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>363</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Sec AF, Sec J, Sec AK, Sec Z, Sec G, Sec AT, Sec C, Sec S, Sec Y, Sec AG, Sec AW</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>BLOCKED_363</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr"/>
+      <c r="E364" t="inlineStr"/>
+      <c r="F364" t="inlineStr"/>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>(4, 8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>364</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Sec AH, Sec V, Sec E, Sec R, Sec AV, Sec J, Sec AN, Sec AT, Sec AF, Sec AL, Sec AO</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>BLOCKED_364</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr"/>
+      <c r="E365" t="inlineStr"/>
+      <c r="F365" t="inlineStr"/>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>(4, 1)</t>
         </is>
       </c>
     </row>
